--- a/artfynd/A 13715-2024 artfynd.xlsx
+++ b/artfynd/A 13715-2024 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>129425710</v>
       </c>
       <c r="B2" t="n">
-        <v>56917</v>
+        <v>57064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -809,7 +809,7 @@
         <v>129839226</v>
       </c>
       <c r="B3" t="n">
-        <v>56931</v>
+        <v>57073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>

--- a/artfynd/A 13715-2024 artfynd.xlsx
+++ b/artfynd/A 13715-2024 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY3"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -930,6 +930,132 @@
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>131130604</v>
+      </c>
+      <c r="B4" t="n">
+        <v>57073</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>100138</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tjäder</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Tetrao urogallus</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>adult</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Tågmossen, Tågmossen, Vstm</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>550930</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6620382</v>
+      </c>
+      <c r="S4" t="n">
+        <v>50</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Skinnskatteberg</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Gunnilbo</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2026-02-12</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>15:28</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Per Eriksson</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Per Eriksson, Lena Öling</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 13715-2024 artfynd.xlsx
+++ b/artfynd/A 13715-2024 artfynd.xlsx
@@ -799,7 +799,7 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Per Eriksson, Lena Öling</t>
+          <t>Lena Öling, Per Eriksson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>

--- a/artfynd/A 13715-2024 artfynd.xlsx
+++ b/artfynd/A 13715-2024 artfynd.xlsx
@@ -799,7 +799,7 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Lena Öling, Per Eriksson</t>
+          <t>Per Eriksson, Lena Öling</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
